--- a/public/template/contoh_format_import_siswa.xlsx
+++ b/public/template/contoh_format_import_siswa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>0819223311</t>
+  </si>
+  <si>
+    <t>no va spp</t>
+  </si>
+  <si>
+    <t>no va other</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +476,10 @@
     <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +516,14 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
